--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1094">
   <si>
     <t>anchor score</t>
   </si>
@@ -367,577 +367,577 @@
     <t>bitch</t>
   </si>
   <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>deaths</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>cuts</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3664,7 +3664,7 @@
         <v>85</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3843,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5">
         <v>0.8448275862068966</v>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K6">
         <v>0.8267716535433071</v>
@@ -3993,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K8">
         <v>0.7848101265822784</v>
@@ -4093,7 +4093,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K10">
         <v>0.7111111111111111</v>
@@ -4143,28 +4143,28 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="K11">
-        <v>0.70995670995671</v>
+        <v>0.7092198581560284</v>
       </c>
       <c r="L11">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="N11">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4193,28 +4193,28 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="K12">
-        <v>0.7092198581560284</v>
+        <v>0.6861924686192469</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4293,7 +4293,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K14">
         <v>0.6190476190476191</v>
@@ -4343,28 +4343,28 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="K15">
-        <v>0.5914634146341463</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L15">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4393,28 +4393,28 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="K16">
-        <v>0.5833333333333334</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4443,28 +4443,28 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="K17">
-        <v>0.5747126436781609</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="M17">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4493,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K18">
         <v>0.5694444444444444</v>
@@ -4543,7 +4543,7 @@
         <v>102</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K19">
         <v>0.5669291338582677</v>
@@ -4593,7 +4593,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K20">
         <v>0.5614035087719298</v>
@@ -4643,7 +4643,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K21">
         <v>0.5294117647058824</v>
@@ -4743,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K23">
         <v>0.4375</v>
@@ -4993,7 +4993,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K28">
         <v>0.3968253968253968</v>
@@ -5043,7 +5043,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K29">
         <v>0.3924050632911392</v>
@@ -5193,7 +5193,7 @@
         <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K32">
         <v>0.3838862559241706</v>
@@ -5243,7 +5243,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K33">
         <v>0.3829787234042553</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K38">
         <v>0.3368421052631579</v>
@@ -5543,7 +5543,7 @@
         <v>46</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K39">
         <v>0.3365853658536586</v>
@@ -5593,7 +5593,7 @@
         <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K40">
         <v>0.3333333333333333</v>
@@ -6043,7 +6043,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K49">
         <v>0.3271604938271605</v>
@@ -6243,7 +6243,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K53">
         <v>0.3095238095238095</v>
@@ -6443,7 +6443,7 @@
         <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K57">
         <v>0.2916666666666667</v>
@@ -6543,7 +6543,7 @@
         <v>16</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K59">
         <v>0.286624203821656</v>
@@ -6593,7 +6593,7 @@
         <v>23</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K60">
         <v>0.2857142857142857</v>
@@ -6743,7 +6743,7 @@
         <v>28</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K63">
         <v>0.2781954887218045</v>
@@ -6893,7 +6893,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K66">
         <v>0.2682926829268293</v>
@@ -7143,7 +7143,7 @@
         <v>61</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K71">
         <v>0.2580645161290323</v>
@@ -7443,7 +7443,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K77">
         <v>0.25</v>
@@ -7493,7 +7493,7 @@
         <v>17</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K78">
         <v>0.25</v>
@@ -8093,7 +8093,7 @@
         <v>16</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K90">
         <v>0.243801652892562</v>
@@ -8243,7 +8243,7 @@
         <v>11</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K93">
         <v>0.2384428223844282</v>
@@ -8293,7 +8293,7 @@
         <v>22</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K94">
         <v>0.2368421052631579</v>
@@ -8393,7 +8393,7 @@
         <v>6</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K96">
         <v>0.2361111111111111</v>
@@ -8743,7 +8743,7 @@
         <v>7</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K103">
         <v>0.2307692307692308</v>
@@ -8993,7 +8993,7 @@
         <v>16</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K108">
         <v>0.2263513513513513</v>
@@ -9172,25 +9172,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1066666666666667</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="E112">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="F112">
-        <v>0.05000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>373</v>
@@ -9222,25 +9222,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>374</v>
@@ -9275,10 +9275,10 @@
         <v>0.1</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>375</v>
@@ -9378,22 +9378,22 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>9</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K116">
         <v>0.2189542483660131</v>
@@ -9428,16 +9428,16 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>9</v>
@@ -9472,13 +9472,13 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -9490,10 +9490,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K118">
         <v>0.2170542635658915</v>
@@ -9525,22 +9525,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>378</v>
@@ -9578,16 +9578,16 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>10</v>
@@ -9675,25 +9675,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K122">
         <v>0.2112676056338028</v>
@@ -9728,13 +9728,13 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="F123">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
@@ -9743,7 +9743,7 @@
         <v>20</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K123">
         <v>0.2111801242236025</v>
@@ -9775,22 +9775,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>381</v>
@@ -9822,13 +9822,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.09090909090909091</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K125">
         <v>0.2096774193548387</v>
@@ -9872,13 +9872,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.08823529411764706</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>382</v>
@@ -9922,13 +9922,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -9940,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K127">
         <v>0.2082387285111904</v>
@@ -9993,7 +9993,7 @@
         <v>11</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K128">
         <v>0.2069351230425056</v>
@@ -10022,13 +10022,13 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -10040,10 +10040,10 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K129">
         <v>0.2061068702290076</v>
@@ -10072,25 +10072,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0821917808219178</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C130">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="E130">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>383</v>
@@ -10122,25 +10122,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>384</v>
@@ -10175,25 +10175,25 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K132">
         <v>0.2039007092198581</v>
@@ -10228,13 +10228,13 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F133">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
@@ -10275,22 +10275,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E134">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F134">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>386</v>
@@ -10325,22 +10325,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
       <c r="E135">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F135">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>387</v>
@@ -10372,25 +10372,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>388</v>
@@ -10422,25 +10422,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E137">
+        <v>0.67</v>
+      </c>
+      <c r="F137">
         <v>0.33</v>
       </c>
-      <c r="F137">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>389</v>
@@ -10472,25 +10472,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>390</v>
@@ -10522,25 +10522,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F139">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>391</v>
@@ -10572,28 +10572,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K140">
         <v>0.2</v>
@@ -10628,16 +10628,16 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>14</v>
@@ -10675,22 +10675,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F142">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>393</v>
@@ -10728,16 +10728,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>14</v>
@@ -10772,25 +10772,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D144">
         <v>5</v>
       </c>
       <c r="E144">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>395</v>
@@ -10822,28 +10822,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K145">
         <v>0.2</v>
@@ -10875,10 +10875,10 @@
         <v>0.0625</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>396</v>
@@ -10972,25 +10972,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>397</v>
@@ -11022,25 +11022,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>398</v>
@@ -11072,25 +11072,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>399</v>
@@ -11122,25 +11122,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>400</v>
@@ -11178,22 +11178,22 @@
         <v>2</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>34</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K152">
         <v>0.1911278905143936</v>
@@ -11228,22 +11228,22 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>17</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K153">
         <v>0.1908396946564886</v>
@@ -11275,25 +11275,25 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K154">
         <v>0.1904761904761905</v>
@@ -11322,25 +11322,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05555555555555555</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E155">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F155">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>401</v>
@@ -11372,25 +11372,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05555555555555555</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>402</v>
@@ -11422,25 +11422,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0547945205479452</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E157">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>403</v>
@@ -11472,25 +11472,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05343511450381679</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>404</v>
@@ -11528,16 +11528,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>18</v>
@@ -11572,25 +11572,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>406</v>
@@ -11622,7 +11622,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11640,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>407</v>
@@ -11672,28 +11672,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K162">
         <v>0.1851851851851852</v>
@@ -11725,22 +11725,22 @@
         <v>0.05</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>408</v>
@@ -11772,25 +11772,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>409</v>
@@ -11822,25 +11822,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>410</v>
@@ -11878,13 +11878,13 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E166">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F166">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
@@ -11922,7 +11922,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11940,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>412</v>
@@ -11972,25 +11972,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>413</v>
@@ -12028,13 +12028,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="E169">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F169">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -12078,13 +12078,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -12128,16 +12128,16 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>22</v>
@@ -12172,25 +12172,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04347826086956522</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E172">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>417</v>
@@ -12222,25 +12222,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>418</v>
@@ -12272,25 +12272,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.04216867469879518</v>
+        <v>0.04</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>419</v>
@@ -12322,25 +12322,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>420</v>
@@ -12372,25 +12372,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="F176">
-        <v>0.09999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>421</v>
@@ -12422,25 +12422,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>422</v>
@@ -12472,25 +12472,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E178">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="F178">
-        <v>0.29</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>423</v>
@@ -12522,25 +12522,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>424</v>
@@ -12572,25 +12572,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>425</v>
@@ -12628,16 +12628,16 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>26</v>
@@ -12672,7 +12672,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12690,7 +12690,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>427</v>
@@ -12722,25 +12722,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>428</v>
@@ -12778,16 +12778,16 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>27</v>
@@ -12828,13 +12828,13 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
@@ -12843,7 +12843,7 @@
         <v>27</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K185">
         <v>0.1764705882352941</v>
@@ -12872,7 +12872,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>430</v>
@@ -12922,25 +12922,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E187">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>431</v>
@@ -12972,28 +12972,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K188">
         <v>0.1739130434782609</v>
@@ -13022,25 +13022,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>432</v>
@@ -13072,25 +13072,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E190">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F190">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>433</v>
@@ -13122,25 +13122,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F191">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>434</v>
@@ -13172,25 +13172,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E192">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F192">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>435</v>
@@ -13222,25 +13222,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03125</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="F193">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>436</v>
@@ -13272,28 +13272,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03125</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="F194">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K194">
         <v>0.1688311688311688</v>
@@ -13322,25 +13322,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03092783505154639</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E195">
-        <v>0.57</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F195">
-        <v>0.43</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>437</v>
@@ -13372,25 +13372,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03076923076923077</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E196">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="F196">
-        <v>0.29</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>438</v>
@@ -13422,25 +13422,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03076923076923077</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>0.9399999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="F197">
-        <v>0.06000000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>439</v>
@@ -13472,13 +13472,13 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02985074626865672</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D198">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="E198">
         <v>0.95</v>
@@ -13490,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>440</v>
@@ -13522,25 +13522,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02912621359223301</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>441</v>
@@ -13575,22 +13575,22 @@
         <v>0.02857142857142857</v>
       </c>
       <c r="C200">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F200">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>442</v>
@@ -13628,13 +13628,13 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
@@ -13672,25 +13672,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D202">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>444</v>
@@ -13722,25 +13722,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02857142857142857</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E203">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F203">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>445</v>
@@ -13772,13 +13772,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C204">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>446</v>
@@ -13822,25 +13822,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02752293577981652</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F205">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>447</v>
@@ -13878,16 +13878,16 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>36</v>
@@ -13922,25 +13922,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E207">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F207">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>449</v>
@@ -13972,25 +13972,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>450</v>
@@ -14022,25 +14022,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02631578947368421</v>
+        <v>0.02611940298507463</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="E209">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F209">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>451</v>
@@ -14072,25 +14072,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02631578947368421</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C210">
         <v>2</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>452</v>
@@ -14122,25 +14122,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02611940298507463</v>
+        <v>0.025</v>
       </c>
       <c r="C211">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>453</v>
@@ -14172,25 +14172,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02531645569620253</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>454</v>
@@ -14222,25 +14222,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>455</v>
@@ -14272,25 +14272,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>456</v>
@@ -14322,25 +14322,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E215">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F215">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>457</v>
@@ -14372,25 +14372,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E216">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F216">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>458</v>
@@ -14422,25 +14422,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E217">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F217">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>459</v>
@@ -14472,25 +14472,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F218">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>460</v>
@@ -14522,25 +14522,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E219">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>461</v>
@@ -14572,25 +14572,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>462</v>
@@ -14625,22 +14625,22 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>463</v>
@@ -14672,25 +14672,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>464</v>
@@ -14722,25 +14722,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F223">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>465</v>
@@ -14775,25 +14775,25 @@
         <v>0.02173913043478261</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K224">
         <v>0.1654135338345865</v>
@@ -14825,25 +14825,25 @@
         <v>0.02173913043478261</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E225">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F225">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K225">
         <v>0.1649484536082474</v>
@@ -14872,25 +14872,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E226">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F226">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>466</v>
@@ -14922,28 +14922,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02173913043478261</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E227">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F227">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K227">
         <v>0.1636363636363636</v>
@@ -14972,13 +14972,13 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02127659574468085</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E228">
         <v>0.86</v>
@@ -14990,10 +14990,10 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K228">
         <v>0.163265306122449</v>
@@ -15022,28 +15022,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02105263157894737</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E229">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F229">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K229">
         <v>0.1623931623931624</v>
@@ -15072,28 +15072,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02061855670103093</v>
+        <v>0.02</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <v>14</v>
       </c>
       <c r="E230">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F230">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K230">
         <v>0.1621621621621622</v>
@@ -15122,25 +15122,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.02040816326530612</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F231">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>467</v>
@@ -15172,13 +15172,13 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E232">
         <v>0.93</v>
@@ -15190,7 +15190,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>468</v>
@@ -15222,25 +15222,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0198019801980198</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D233">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E233">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F233">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>469</v>
@@ -15272,28 +15272,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01941747572815534</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E234">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F234">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K234">
         <v>0.1612903225806452</v>
@@ -15322,28 +15322,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0193050193050193</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C235">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F235">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K235">
         <v>0.16</v>
@@ -15372,28 +15372,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E236">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F236">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K236">
         <v>0.16</v>
@@ -15425,22 +15425,22 @@
         <v>0.01886792452830189</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E237">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F237">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>470</v>
@@ -15472,13 +15472,13 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01886792452830189</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E238">
         <v>0.91</v>
@@ -15490,7 +15490,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>471</v>
@@ -15522,25 +15522,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E239">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F239">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>472</v>
@@ -15572,25 +15572,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01869158878504673</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F240">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>473</v>
@@ -15625,25 +15625,25 @@
         <v>0.01851851851851852</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E241">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F241">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K241">
         <v>0.1588785046728972</v>
@@ -15672,25 +15672,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E242">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F242">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>474</v>
@@ -15722,25 +15722,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F243">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>475</v>
@@ -15772,25 +15772,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>476</v>
@@ -15828,13 +15828,13 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E245">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F245">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
@@ -15843,7 +15843,7 @@
         <v>55</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K245">
         <v>0.15625</v>
@@ -15872,25 +15872,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>477</v>
@@ -15922,25 +15922,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E247">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F247">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>478</v>
@@ -15978,13 +15978,13 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E248">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F248">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
@@ -15993,7 +15993,7 @@
         <v>56</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K248">
         <v>0.1545454545454545</v>
@@ -16025,22 +16025,22 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E249">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F249">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>479</v>
@@ -16072,28 +16072,28 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E250">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F250">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K250">
         <v>0.1538461538461539</v>
@@ -16122,25 +16122,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01754385964912281</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E251">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F251">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>480</v>
@@ -16172,25 +16172,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E252">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F252">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>481</v>
@@ -16222,25 +16222,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01666666666666667</v>
+        <v>0.01572327044025157</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D253">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E253">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F253">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>59</v>
+        <v>313</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>482</v>
@@ -16272,25 +16272,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E254">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F254">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>483</v>
@@ -16322,28 +16322,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01572327044025157</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="C255">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E255">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F255">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K255">
         <v>0.1530054644808743</v>
@@ -16372,28 +16372,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01538461538461539</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E256">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F256">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K256">
         <v>0.1523255813953488</v>
@@ -16422,25 +16422,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01507537688442211</v>
+        <v>0.01380897583429229</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D257">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="E257">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F257">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>196</v>
+        <v>1714</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>484</v>
@@ -16472,7 +16472,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01408450704225352</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16490,10 +16490,10 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K258">
         <v>0.1506849315068493</v>
@@ -16522,25 +16522,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01380897583429229</v>
+        <v>0.01340482573726542</v>
       </c>
       <c r="C259">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D259">
-        <v>429</v>
+        <v>5</v>
       </c>
       <c r="E259">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>1714</v>
+        <v>368</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>485</v>
@@ -16572,25 +16572,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0136986301369863</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>486</v>
@@ -16622,28 +16622,28 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01340482573726542</v>
+        <v>0.01301518438177874</v>
       </c>
       <c r="C261">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>368</v>
+        <v>910</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K261">
         <v>0.1484375</v>
@@ -16672,25 +16672,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0131578947368421</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>487</v>
@@ -16722,25 +16722,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01301518438177874</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="C263">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E263">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="F263">
-        <v>0.21</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>910</v>
+        <v>155</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>488</v>
@@ -16772,28 +16772,28 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01282051282051282</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E264">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F264">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K264">
         <v>0.147239263803681</v>
@@ -16822,25 +16822,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01273885350318471</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="C265">
         <v>2</v>
       </c>
       <c r="D265">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="E265">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F265">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>489</v>
@@ -16872,28 +16872,28 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01226993865030675</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E266">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F266">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K266">
         <v>0.1451612903225807</v>
@@ -16922,25 +16922,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01197604790419162</v>
+        <v>0.01115241635687732</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D267">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="E267">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F267">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>165</v>
+        <v>532</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>490</v>
@@ -16972,25 +16972,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01123595505617977</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E268">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F268">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>491</v>
@@ -17022,25 +17022,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01115241635687732</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C269">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="E269">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F269">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>532</v>
+        <v>96</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>492</v>
@@ -17072,25 +17072,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01063829787234043</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E270">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F270">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>493</v>
@@ -17122,25 +17122,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01030927835051546</v>
+        <v>0.009776536312849162</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D271">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="E271">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F271">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>96</v>
+        <v>709</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>494</v>
@@ -17172,25 +17172,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01020408163265306</v>
+        <v>0.00973630831643002</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>666</v>
       </c>
       <c r="E272">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F272">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>97</v>
+        <v>2441</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>495</v>
@@ -17222,25 +17222,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.009776536312849162</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C273">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="E273">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F273">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>709</v>
+        <v>103</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>496</v>
@@ -17272,25 +17272,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.00973630831643002</v>
+        <v>0.009510869565217392</v>
       </c>
       <c r="C274">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D274">
-        <v>666</v>
+        <v>138</v>
       </c>
       <c r="E274">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F274">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>2441</v>
+        <v>729</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>497</v>
@@ -17322,25 +17322,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.009615384615384616</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E275">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F275">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>498</v>
@@ -17372,13 +17372,13 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.009510869565217392</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C276">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="E276">
         <v>0.95</v>
@@ -17390,7 +17390,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>729</v>
+        <v>109</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>499</v>
@@ -17422,25 +17422,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.00909090909090909</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D277">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="E277">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F277">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>109</v>
+        <v>687</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>500</v>
@@ -17472,25 +17472,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.00909090909090909</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E278">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F278">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>501</v>
@@ -17522,13 +17522,13 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.008658008658008658</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="C279">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D279">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="E279">
         <v>0.97</v>
@@ -17540,7 +17540,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>687</v>
+        <v>239</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>502</v>
@@ -17572,25 +17572,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.008333333333333333</v>
+        <v>0.00826743350107836</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D280">
-        <v>9</v>
+        <v>442</v>
       </c>
       <c r="E280">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F280">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>119</v>
+        <v>2759</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>503</v>
@@ -17622,25 +17622,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.008298755186721992</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E281">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F281">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>504</v>
@@ -17672,25 +17672,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.00826743350107836</v>
+        <v>0.008</v>
       </c>
       <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
         <v>23</v>
       </c>
-      <c r="D282">
-        <v>442</v>
-      </c>
       <c r="E282">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F282">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>2759</v>
+        <v>124</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>505</v>
@@ -17722,13 +17722,13 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.008264462809917356</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E283">
         <v>0.9399999999999999</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>506</v>
@@ -17772,25 +17772,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.008</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D284">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E284">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F284">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>124</v>
+        <v>500</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>507</v>
@@ -17825,22 +17825,22 @@
         <v>0.007936507936507936</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E285">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F285">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>508</v>
@@ -17872,25 +17872,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.007936507936507936</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C286">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E286">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F286">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>500</v>
+        <v>139</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>509</v>
@@ -17922,25 +17922,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.007936507936507936</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E287">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F287">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>510</v>
@@ -17972,25 +17972,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.007142857142857143</v>
+        <v>0.00663716814159292</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D288">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="E288">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F288">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>139</v>
+        <v>449</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>511</v>
@@ -18022,25 +18022,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.006666666666666667</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E289">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F289">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>512</v>
@@ -18072,25 +18072,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.00663716814159292</v>
+        <v>0.006042296072507553</v>
       </c>
       <c r="C290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="E290">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F290">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>449</v>
+        <v>329</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>513</v>
@@ -18122,25 +18122,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.006622516556291391</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E291">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F291">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>514</v>
@@ -18172,25 +18172,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.006042296072507553</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="C292">
         <v>2</v>
       </c>
       <c r="D292">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="E292">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F292">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>515</v>
@@ -18222,25 +18222,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.005555555555555556</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E293">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F293">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>516</v>
@@ -18272,25 +18272,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.005434782608695652</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="E294">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F294">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>366</v>
+        <v>188</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>517</v>
@@ -18322,25 +18322,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.005376344086021506</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E295">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F295">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>518</v>
@@ -18372,25 +18372,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.005291005291005291</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E296">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F296">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>519</v>
@@ -18422,13 +18422,13 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.004975124378109453</v>
+        <v>0.00484027105517909</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D297">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E297">
         <v>0.96</v>
@@ -18440,10 +18440,10 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>200</v>
+        <v>1028</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K297">
         <v>0.1428571428571428</v>
@@ -18472,25 +18472,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.004926108374384237</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E298">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F298">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>520</v>
@@ -18518,30 +18518,6 @@
       </c>
     </row>
     <row r="299" spans="1:17">
-      <c r="A299" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B299">
-        <v>0.00484027105517909</v>
-      </c>
-      <c r="C299">
-        <v>5</v>
-      </c>
-      <c r="D299">
-        <v>133</v>
-      </c>
-      <c r="E299">
-        <v>0.96</v>
-      </c>
-      <c r="F299">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G299" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299">
-        <v>1028</v>
-      </c>
       <c r="J299" s="1" t="s">
         <v>521</v>
       </c>
@@ -18568,30 +18544,6 @@
       </c>
     </row>
     <row r="300" spans="1:17">
-      <c r="A300" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300">
-        <v>0.004484304932735426</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>45</v>
-      </c>
-      <c r="E300">
-        <v>0.98</v>
-      </c>
-      <c r="F300">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300">
-        <v>222</v>
-      </c>
       <c r="J300" s="1" t="s">
         <v>522</v>
       </c>
@@ -18645,7 +18597,7 @@
     </row>
     <row r="302" spans="1:17">
       <c r="J302" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K302">
         <v>0.1388888888888889</v>
@@ -18801,7 +18753,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K308">
         <v>0.1333333333333333</v>
@@ -18931,7 +18883,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K313">
         <v>0.1333333333333333</v>
@@ -19113,7 +19065,7 @@
     </row>
     <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K320">
         <v>0.131843926998112</v>
@@ -19269,7 +19221,7 @@
     </row>
     <row r="326" spans="10:17">
       <c r="J326" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K326">
         <v>0.1286549707602339</v>
@@ -19347,7 +19299,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K329">
         <v>0.125</v>
@@ -20491,7 +20443,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K373">
         <v>0.1240875912408759</v>
@@ -20517,7 +20469,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K374">
         <v>0.1219512195121951</v>
@@ -20907,7 +20859,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K389">
         <v>0.1153846153846154</v>
@@ -20985,7 +20937,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K392">
         <v>0.1121495327102804</v>
@@ -21141,7 +21093,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K398">
         <v>0.1111111111111111</v>
@@ -21843,7 +21795,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K425">
         <v>0.1107266435986159</v>
@@ -21921,7 +21873,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K428">
         <v>0.1071428571428571</v>
@@ -22025,7 +21977,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K432">
         <v>0.1061946902654867</v>
@@ -22155,7 +22107,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K437">
         <v>0.1052631578947368</v>
@@ -22181,7 +22133,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K438">
         <v>0.1052631578947368</v>
@@ -22337,7 +22289,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K444">
         <v>0.1039426523297491</v>
@@ -22467,7 +22419,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K449">
         <v>0.1020408163265306</v>
@@ -22493,7 +22445,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K450">
         <v>0.1016949152542373</v>
@@ -22779,7 +22731,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K461">
         <v>0.1</v>
@@ -23403,7 +23355,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K485">
         <v>0.09677419354838709</v>
@@ -23793,7 +23745,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K500">
         <v>0.09259259259259259</v>
@@ -23819,7 +23771,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K501">
         <v>0.09230769230769231</v>
@@ -23923,7 +23875,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K505">
         <v>0.09090909090909091</v>
@@ -23949,7 +23901,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K506">
         <v>0.09090909090909091</v>
@@ -23975,7 +23927,7 @@
     </row>
     <row r="507" spans="10:17">
       <c r="J507" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K507">
         <v>0.09090909090909091</v>
@@ -24001,7 +23953,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K508">
         <v>0.09090909090909091</v>
@@ -24131,7 +24083,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K513">
         <v>0.09090909090909091</v>
@@ -24235,7 +24187,7 @@
     </row>
     <row r="517" spans="10:17">
       <c r="J517" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K517">
         <v>0.09090909090909091</v>
@@ -24885,7 +24837,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K542">
         <v>0.08759124087591241</v>
@@ -25301,7 +25253,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K558">
         <v>0.08333333333333333</v>
@@ -25405,7 +25357,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K562">
         <v>0.08333333333333333</v>
@@ -26003,7 +25955,7 @@
     </row>
     <row r="585" spans="10:17">
       <c r="J585" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K585">
         <v>0.08163265306122448</v>
@@ -26029,7 +25981,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K586">
         <v>0.08163265306122448</v>
@@ -26107,7 +26059,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K589">
         <v>0.08108108108108109</v>
@@ -26159,7 +26111,7 @@
     </row>
     <row r="591" spans="10:17">
       <c r="J591" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K591">
         <v>0.08100558659217877</v>
@@ -26393,7 +26345,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K600">
         <v>0.07692307692307693</v>
@@ -26549,7 +26501,7 @@
     </row>
     <row r="606" spans="10:17">
       <c r="J606" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K606">
         <v>0.07692307692307693</v>
@@ -26809,7 +26761,7 @@
     </row>
     <row r="616" spans="10:17">
       <c r="J616" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K616">
         <v>0.07692307692307693</v>
@@ -26991,7 +26943,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K623">
         <v>0.07578558225508318</v>
@@ -27069,7 +27021,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K626">
         <v>0.075</v>
@@ -27225,7 +27177,7 @@
     </row>
     <row r="632" spans="10:17">
       <c r="J632" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K632">
         <v>0.07352941176470588</v>
@@ -28655,7 +28607,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K687">
         <v>0.06666666666666667</v>
@@ -28759,7 +28711,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K691">
         <v>0.06666666666666667</v>
@@ -29045,7 +28997,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K702">
         <v>0.06451612903225806</v>
@@ -29175,7 +29127,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K707">
         <v>0.06382978723404255</v>
@@ -29253,7 +29205,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K710">
         <v>0.06299212598425197</v>
@@ -30449,7 +30401,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K756">
         <v>0.05454545454545454</v>
@@ -30735,7 +30687,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K767">
         <v>0.05263157894736842</v>
@@ -31021,7 +30973,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K778">
         <v>0.05172413793103448</v>
@@ -31593,7 +31545,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K800">
         <v>0.04811715481171548</v>
@@ -31645,7 +31597,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K802">
         <v>0.04761904761904762</v>
@@ -31749,7 +31701,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K806">
         <v>0.04761904761904762</v>
@@ -31827,7 +31779,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K809">
         <v>0.04761904761904762</v>
@@ -31931,7 +31883,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K813">
         <v>0.04733727810650887</v>
@@ -32035,7 +31987,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K817">
         <v>0.04545454545454546</v>
@@ -32451,7 +32403,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K833">
         <v>0.04347826086956522</v>
@@ -32529,7 +32481,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K836">
         <v>0.0425531914893617</v>
@@ -32841,7 +32793,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K848">
         <v>0.0410958904109589</v>
@@ -32919,7 +32871,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K851">
         <v>0.04081632653061224</v>
@@ -33023,7 +32975,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K855">
         <v>0.04</v>
@@ -33101,7 +33053,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K858">
         <v>0.04</v>
@@ -33413,7 +33365,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K870">
         <v>0.03703703703703703</v>
@@ -33595,7 +33547,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K877">
         <v>0.03571428571428571</v>
@@ -33621,7 +33573,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K878">
         <v>0.03571428571428571</v>
@@ -33777,7 +33729,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K884">
         <v>0.03448275862068965</v>
@@ -33803,7 +33755,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K885">
         <v>0.03448275862068965</v>
@@ -33907,7 +33859,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K889">
         <v>0.03243243243243243</v>
@@ -34037,7 +33989,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K894">
         <v>0.03125</v>
@@ -34219,7 +34171,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K901">
         <v>0.03</v>
@@ -34323,7 +34275,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K905">
         <v>0.02857142857142857</v>
@@ -34609,7 +34561,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K916">
         <v>0.02631578947368421</v>
@@ -34791,7 +34743,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K923">
         <v>0.025</v>
@@ -35285,7 +35237,7 @@
     </row>
     <row r="942" spans="10:17">
       <c r="J942" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K942">
         <v>0.01904761904761905</v>
@@ -35363,7 +35315,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K945">
         <v>0.01595744680851064</v>
@@ -35467,7 +35419,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K949">
         <v>0.01052631578947368</v>
